--- a/biology/Médecine/Syndrome_de_Sissi/Syndrome_de_Sissi.xlsx
+++ b/biology/Médecine/Syndrome_de_Sissi/Syndrome_de_Sissi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le syndrome de Sissi, ou en allemand : ‘Sissi-Syndrom’, est une forme discutable de syndrome dépressif, et, selon le journaliste Jörg Blech, une invention de toutes pièces de l'industrie pharmaceutique.
 </t>
@@ -511,10 +523,12 @@
           <t>Nosographie théorique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le syndrome de Sissi rassemblerait, dans une forme de syndrome dépressif, agitation, nervosité, hyperactivité physique, sautes d'humeur, jeûne, culte exagéré du corps, problèmes d'estime de soi et de nombreuses tentatives d'auto-traitement. L'ensemble de ces signes, bien que difficiles à détecter, seraient identifiables chez un tiers des femmes dépressives[1].
-Il doit son nom à Sissi, impératrice d'Autriche, qui aurait été atteinte par cette forme de dépression[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le syndrome de Sissi rassemblerait, dans une forme de syndrome dépressif, agitation, nervosité, hyperactivité physique, sautes d'humeur, jeûne, culte exagéré du corps, problèmes d'estime de soi et de nombreuses tentatives d'auto-traitement. L'ensemble de ces signes, bien que difficiles à détecter, seraient identifiables chez un tiers des femmes dépressives.
+Il doit son nom à Sissi, impératrice d'Autriche, qui aurait été atteinte par cette forme de dépression.
 </t>
         </is>
       </c>
@@ -543,11 +557,13 @@
           <t>Controverse</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Selon le journaliste Jörg Blech, reprenant les études de spécialistes allemands, ce syndrome serait une invention de toutes pièces de l'industrie pharmaceutique.
-« Le syndrome de Sissi fit ainsi sa première apparition en 1998 : dans une annonce partiale du laboratoire SmithKline-Beecham (devenu entre-temps Glaxo-SmithKline). Les individus touchés y étaient décrits comme dépressifs, leur état pouvant donc nécessiter un traitement par psychotropes. [...] Mais en mai 2003, des médecins de la clinique universitaire de Münster démontrèrent que ce prétendu problème de santé publique était une invention de l'industrie[2]. Leur analyse de sources spécialisées a en effet montré que le tableau clinique ne pouvait être justifié scientifiquement. La présence médiatique du syndrome de Sissi, notamment dans un essai consacré à ce sujet comme par un fait exprès, serait bien plutôt due à l'action de Wedopress, une agence de relations publiques installée à Oberursel et sous contrat avec Glaxo-SmithKline[3]. »
-Ce syndrome n'est finalement pas retenu dans la nosologie contemporaine[4].
+« Le syndrome de Sissi fit ainsi sa première apparition en 1998 : dans une annonce partiale du laboratoire SmithKline-Beecham (devenu entre-temps Glaxo-SmithKline). Les individus touchés y étaient décrits comme dépressifs, leur état pouvant donc nécessiter un traitement par psychotropes. [...] Mais en mai 2003, des médecins de la clinique universitaire de Münster démontrèrent que ce prétendu problème de santé publique était une invention de l'industrie. Leur analyse de sources spécialisées a en effet montré que le tableau clinique ne pouvait être justifié scientifiquement. La présence médiatique du syndrome de Sissi, notamment dans un essai consacré à ce sujet comme par un fait exprès, serait bien plutôt due à l'action de Wedopress, une agence de relations publiques installée à Oberursel et sous contrat avec Glaxo-SmithKline. »
+Ce syndrome n'est finalement pas retenu dans la nosologie contemporaine.
 </t>
         </is>
       </c>
